--- a/831MarketingAnalytics/Project/Data/Data_Payment Schedules and Loan Balances/Payments_Loan_Export_163_2024_08_12.xlsx
+++ b/831MarketingAnalytics/Project/Data/Data_Payment Schedules and Loan Balances/Payments_Loan_Export_163_2024_08_12.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://whitehatfinancialca-my.sharepoint.com/personal/mark_whitehat_financial/Documents/Parachute Loan Management/TKL Reports/WLU Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://queensuca-my.sharepoint.com/personal/24wq24_queensu_ca/Documents/School/831MarketingAnalytics/Project/Data/Data_Payment Schedules and Loan Balances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{91EB8D76-AB26-42CE-939D-63AF5E19DA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8764C0AB-E06F-42E5-AA4A-68FD80A27060}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{91EB8D76-AB26-42CE-939D-63AF5E19DA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55B45F16-AF43-7E41-BBE8-2FC967D0B010}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5880" windowWidth="22700" windowHeight="14480" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LN 163 Initial Schedule" sheetId="2" r:id="rId1"/>
     <sheet name="LN 163 Actual Schedule" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'LN 163 Actual Schedule'!$A$1:$T$130</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1273,7 +1276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1343,9 +1346,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1383,7 +1386,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1489,7 +1492,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1631,7 +1634,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1645,30 +1648,30 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="7.5" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" customWidth="1"/>
     <col min="18" max="18" width="22" customWidth="1"/>
-    <col min="19" max="20" width="10.5703125" customWidth="1"/>
+    <col min="19" max="20" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.25">
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +1733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="14.25">
+    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1792,7 +1795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="14.25">
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="14.25">
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1916,7 +1919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="14.25">
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="14.25">
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="14.25">
+    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="14.25">
+    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="14.25">
+    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -2226,7 +2229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.25">
+    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -2288,7 +2291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="14.25">
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.25">
+    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -2412,7 +2415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.25">
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.25">
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -2536,7 +2539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="14.25">
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
@@ -2598,7 +2601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="14.25">
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -2660,7 +2663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="14.25">
+    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -2722,7 +2725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="14.25">
+    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -2784,7 +2787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="14.25">
+    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -2846,7 +2849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="14.25">
+    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
@@ -2908,7 +2911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="14.25">
+    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -2970,7 +2973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="14.25">
+    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
@@ -3032,7 +3035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="14.25">
+    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
@@ -3094,7 +3097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="14.25">
+    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -3156,7 +3159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="14.25">
+    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
@@ -3218,7 +3221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="14.25">
+    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>70</v>
       </c>
@@ -3280,7 +3283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="14.25">
+    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>72</v>
       </c>
@@ -3342,7 +3345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="14.25">
+    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>74</v>
       </c>
@@ -3404,7 +3407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="14.25">
+    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>76</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="14.25">
+    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>78</v>
       </c>
@@ -3528,7 +3531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="14.25">
+    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>80</v>
       </c>
@@ -3590,7 +3593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="14.25">
+    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>82</v>
       </c>
@@ -3652,7 +3655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="14.25">
+    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>84</v>
       </c>
@@ -3714,7 +3717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="14.25">
+    <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>86</v>
       </c>
@@ -3776,7 +3779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="14.25">
+    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>88</v>
       </c>
@@ -3838,7 +3841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="14.25">
+    <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>90</v>
       </c>
@@ -3900,7 +3903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="14.25">
+    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -3962,7 +3965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="14.25">
+    <row r="38" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>94</v>
       </c>
@@ -4024,7 +4027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="14.25">
+    <row r="39" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>96</v>
       </c>
@@ -4086,7 +4089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="14.25">
+    <row r="40" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>98</v>
       </c>
@@ -4148,7 +4151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="14.25">
+    <row r="41" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>100</v>
       </c>
@@ -4210,7 +4213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="14.25">
+    <row r="42" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>102</v>
       </c>
@@ -4272,7 +4275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="14.25">
+    <row r="43" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>104</v>
       </c>
@@ -4334,7 +4337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="14.25">
+    <row r="44" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>106</v>
       </c>
@@ -4396,7 +4399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="14.25">
+    <row r="45" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>108</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="14.25">
+    <row r="46" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>110</v>
       </c>
@@ -4520,7 +4523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="14.25">
+    <row r="47" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>112</v>
       </c>
@@ -4582,7 +4585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="14.25">
+    <row r="48" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>114</v>
       </c>
@@ -4644,7 +4647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="14.25">
+    <row r="49" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>116</v>
       </c>
@@ -4706,7 +4709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="14.25">
+    <row r="50" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>118</v>
       </c>
@@ -4768,7 +4771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="14.25">
+    <row r="51" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>120</v>
       </c>
@@ -4830,7 +4833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="14.25">
+    <row r="52" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>122</v>
       </c>
@@ -4892,7 +4895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="14.25">
+    <row r="53" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
@@ -4954,7 +4957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="14.25">
+    <row r="54" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>126</v>
       </c>
@@ -5016,7 +5019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="14.25">
+    <row r="55" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>128</v>
       </c>
@@ -5078,7 +5081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="14.25">
+    <row r="56" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>130</v>
       </c>
@@ -5140,7 +5143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="14.25">
+    <row r="57" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>132</v>
       </c>
@@ -5202,7 +5205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="14.25">
+    <row r="58" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>134</v>
       </c>
@@ -5264,7 +5267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="14.25">
+    <row r="59" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>136</v>
       </c>
@@ -5326,7 +5329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="14.25">
+    <row r="60" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>138</v>
       </c>
@@ -5388,7 +5391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="14.25">
+    <row r="61" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>140</v>
       </c>
@@ -5450,7 +5453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="14.25">
+    <row r="62" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>142</v>
       </c>
@@ -5512,7 +5515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="14.25">
+    <row r="63" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>144</v>
       </c>
@@ -5574,7 +5577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="14.25">
+    <row r="64" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>146</v>
       </c>
@@ -5636,7 +5639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="14.25">
+    <row r="65" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>148</v>
       </c>
@@ -5698,7 +5701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="14.25">
+    <row r="66" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>150</v>
       </c>
@@ -5760,7 +5763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="14.25">
+    <row r="67" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>152</v>
       </c>
@@ -5822,7 +5825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="14.25">
+    <row r="68" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>154</v>
       </c>
@@ -5884,7 +5887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="14.25">
+    <row r="69" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>156</v>
       </c>
@@ -5946,7 +5949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="14.25">
+    <row r="70" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>158</v>
       </c>
@@ -6008,7 +6011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="14.25">
+    <row r="71" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>160</v>
       </c>
@@ -6070,7 +6073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="14.25">
+    <row r="72" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>162</v>
       </c>
@@ -6132,7 +6135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="14.25">
+    <row r="73" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>164</v>
       </c>
@@ -6194,7 +6197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="14.25">
+    <row r="74" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>166</v>
       </c>
@@ -6256,7 +6259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="14.25">
+    <row r="75" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>168</v>
       </c>
@@ -6318,7 +6321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="14.25">
+    <row r="76" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>170</v>
       </c>
@@ -6380,7 +6383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="14.25">
+    <row r="77" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>172</v>
       </c>
@@ -6442,7 +6445,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="14.25">
+    <row r="78" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>174</v>
       </c>
@@ -6504,7 +6507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="14.25">
+    <row r="79" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>176</v>
       </c>
@@ -6566,7 +6569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="14.25">
+    <row r="80" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>178</v>
       </c>
@@ -6628,7 +6631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="14.25">
+    <row r="81" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>180</v>
       </c>
@@ -6690,7 +6693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="14.25">
+    <row r="82" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>182</v>
       </c>
@@ -6752,7 +6755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="14.25">
+    <row r="83" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>184</v>
       </c>
@@ -6814,7 +6817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="14.25">
+    <row r="84" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>186</v>
       </c>
@@ -6876,7 +6879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="14.25">
+    <row r="85" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>188</v>
       </c>
@@ -6938,7 +6941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="14.25">
+    <row r="86" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>190</v>
       </c>
@@ -7000,7 +7003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="14.25">
+    <row r="87" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>192</v>
       </c>
@@ -7062,7 +7065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="14.25">
+    <row r="88" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>194</v>
       </c>
@@ -7124,7 +7127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="14.25">
+    <row r="89" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>196</v>
       </c>
@@ -7186,7 +7189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="14.25">
+    <row r="90" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>198</v>
       </c>
@@ -7248,7 +7251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="14.25">
+    <row r="91" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>200</v>
       </c>
@@ -7310,7 +7313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="14.25">
+    <row r="92" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>202</v>
       </c>
@@ -7372,7 +7375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="14.25">
+    <row r="93" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>204</v>
       </c>
@@ -7434,7 +7437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="14.25">
+    <row r="94" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>206</v>
       </c>
@@ -7496,7 +7499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="14.25">
+    <row r="95" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>208</v>
       </c>
@@ -7558,7 +7561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="14.25">
+    <row r="96" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>210</v>
       </c>
@@ -7620,7 +7623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="14.25">
+    <row r="97" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>212</v>
       </c>
@@ -7682,7 +7685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="14.25">
+    <row r="98" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>214</v>
       </c>
@@ -7744,7 +7747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="14.25">
+    <row r="99" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>216</v>
       </c>
@@ -7806,7 +7809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="14.25">
+    <row r="100" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>218</v>
       </c>
@@ -7868,7 +7871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="14.25">
+    <row r="101" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>220</v>
       </c>
@@ -7930,7 +7933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="14.25">
+    <row r="102" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>222</v>
       </c>
@@ -7992,7 +7995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="14.25">
+    <row r="103" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>224</v>
       </c>
@@ -8054,7 +8057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="14.25">
+    <row r="104" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>226</v>
       </c>
@@ -8116,7 +8119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="14.25">
+    <row r="105" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>228</v>
       </c>
@@ -8178,7 +8181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="14.25">
+    <row r="106" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>230</v>
       </c>
@@ -8240,7 +8243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="14.25">
+    <row r="107" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>232</v>
       </c>
@@ -8302,7 +8305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="14.25">
+    <row r="108" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>234</v>
       </c>
@@ -8364,7 +8367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="14.25">
+    <row r="109" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>236</v>
       </c>
@@ -8426,7 +8429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="14.25">
+    <row r="110" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>238</v>
       </c>
@@ -8488,7 +8491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="14.25">
+    <row r="111" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>240</v>
       </c>
@@ -8550,7 +8553,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="14.25">
+    <row r="112" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>242</v>
       </c>
@@ -8612,7 +8615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="14.25">
+    <row r="113" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>244</v>
       </c>
@@ -8674,7 +8677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="14.25">
+    <row r="114" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>246</v>
       </c>
@@ -8736,7 +8739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="14.25">
+    <row r="115" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>248</v>
       </c>
@@ -8798,7 +8801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="14.25">
+    <row r="116" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>250</v>
       </c>
@@ -8860,7 +8863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="14.25">
+    <row r="117" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>252</v>
       </c>
@@ -8922,7 +8925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="14.25">
+    <row r="118" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>254</v>
       </c>
@@ -8984,7 +8987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="14.25">
+    <row r="119" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>256</v>
       </c>
@@ -9046,7 +9049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="14.25">
+    <row r="120" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>258</v>
       </c>
@@ -9108,7 +9111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="14.25">
+    <row r="121" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>260</v>
       </c>
@@ -9170,7 +9173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="14.25">
+    <row r="122" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>262</v>
       </c>
@@ -9232,7 +9235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="14.25">
+    <row r="123" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>264</v>
       </c>
@@ -9294,7 +9297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="14.25">
+    <row r="124" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>266</v>
       </c>
@@ -9356,7 +9359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="14.25">
+    <row r="125" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>268</v>
       </c>
@@ -9418,7 +9421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="14.25">
+    <row r="126" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>270</v>
       </c>
@@ -9480,7 +9483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="14.25">
+    <row r="127" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>272</v>
       </c>
@@ -9542,7 +9545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="14.25">
+    <row r="128" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>274</v>
       </c>
@@ -9604,7 +9607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="14.25">
+    <row r="129" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>276</v>
       </c>
@@ -9674,37 +9677,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653021F9-B049-4140-9E3A-5F5B531EBA36}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="7.5" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" customWidth="1"/>
     <col min="18" max="18" width="22" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" customWidth="1"/>
+    <col min="20" max="20" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.25">
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9766,7 +9770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="14.25">
+    <row r="2" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -9828,7 +9832,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="14.25">
+    <row r="3" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -9890,7 +9894,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="14.25">
+    <row r="4" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -9952,7 +9956,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="14.25">
+    <row r="5" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -10014,7 +10018,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="14.25">
+    <row r="6" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -10076,7 +10080,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="14.25">
+    <row r="7" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -10138,7 +10142,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="14.25">
+    <row r="8" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -10200,7 +10204,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="14.25">
+    <row r="9" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -10262,7 +10266,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.25">
+    <row r="10" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -10324,7 +10328,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="14.25">
+    <row r="11" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -10386,7 +10390,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.25">
+    <row r="12" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -10448,7 +10452,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.25">
+    <row r="13" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -10510,7 +10514,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.25">
+    <row r="14" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -10572,7 +10576,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="14.25">
+    <row r="15" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
@@ -10634,7 +10638,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="14.25">
+    <row r="16" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -10696,7 +10700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="14.25">
+    <row r="17" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -10758,7 +10762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="14.25">
+    <row r="18" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -10820,7 +10824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="14.25">
+    <row r="19" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -10882,7 +10886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="14.25">
+    <row r="20" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
@@ -10944,7 +10948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="14.25">
+    <row r="21" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -11006,7 +11010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="14.25">
+    <row r="22" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
@@ -11068,7 +11072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="14.25">
+    <row r="23" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
@@ -11130,7 +11134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="14.25">
+    <row r="24" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -11192,7 +11196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="14.25">
+    <row r="25" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
@@ -11254,7 +11258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="14.25">
+    <row r="26" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>70</v>
       </c>
@@ -11316,7 +11320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="14.25">
+    <row r="27" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>72</v>
       </c>
@@ -11378,7 +11382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="14.25">
+    <row r="28" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>74</v>
       </c>
@@ -11440,7 +11444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="14.25">
+    <row r="29" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>76</v>
       </c>
@@ -11502,7 +11506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="14.25">
+    <row r="30" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>78</v>
       </c>
@@ -11564,7 +11568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="14.25">
+    <row r="31" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>80</v>
       </c>
@@ -11626,7 +11630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="14.25">
+    <row r="32" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>82</v>
       </c>
@@ -11688,7 +11692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="14.25">
+    <row r="33" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>84</v>
       </c>
@@ -11750,7 +11754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="14.25">
+    <row r="34" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>86</v>
       </c>
@@ -11812,7 +11816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="14.25">
+    <row r="35" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>88</v>
       </c>
@@ -11874,7 +11878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="14.25">
+    <row r="36" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>90</v>
       </c>
@@ -11936,7 +11940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="14.25">
+    <row r="37" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -11998,7 +12002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="14.25">
+    <row r="38" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>94</v>
       </c>
@@ -12060,7 +12064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="14.25">
+    <row r="39" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>96</v>
       </c>
@@ -12122,7 +12126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="14.25">
+    <row r="40" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>98</v>
       </c>
@@ -12184,7 +12188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="14.25">
+    <row r="41" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>100</v>
       </c>
@@ -12246,7 +12250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="14.25">
+    <row r="42" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>102</v>
       </c>
@@ -12308,7 +12312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="14.25">
+    <row r="43" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>104</v>
       </c>
@@ -12370,7 +12374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="14.25">
+    <row r="44" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>106</v>
       </c>
@@ -12432,7 +12436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="14.25">
+    <row r="45" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>108</v>
       </c>
@@ -12494,7 +12498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="14.25">
+    <row r="46" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>110</v>
       </c>
@@ -12556,7 +12560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="14.25">
+    <row r="47" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>112</v>
       </c>
@@ -12618,7 +12622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="14.25">
+    <row r="48" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>114</v>
       </c>
@@ -12680,7 +12684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="14.25">
+    <row r="49" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>116</v>
       </c>
@@ -12742,7 +12746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="14.25">
+    <row r="50" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>118</v>
       </c>
@@ -12804,7 +12808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="14.25">
+    <row r="51" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>120</v>
       </c>
@@ -12866,7 +12870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="14.25">
+    <row r="52" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>122</v>
       </c>
@@ -12928,7 +12932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="14.25">
+    <row r="53" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
@@ -12990,7 +12994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="14.25">
+    <row r="54" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>126</v>
       </c>
@@ -13052,7 +13056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="14.25">
+    <row r="55" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>128</v>
       </c>
@@ -13114,7 +13118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="14.25">
+    <row r="56" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>130</v>
       </c>
@@ -13176,7 +13180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="14.25">
+    <row r="57" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>132</v>
       </c>
@@ -13238,7 +13242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="14.25">
+    <row r="58" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>134</v>
       </c>
@@ -13300,7 +13304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="14.25">
+    <row r="59" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>136</v>
       </c>
@@ -13362,7 +13366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="14.25">
+    <row r="60" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>138</v>
       </c>
@@ -13424,7 +13428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="14.25">
+    <row r="61" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>140</v>
       </c>
@@ -13486,7 +13490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="14.25">
+    <row r="62" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>142</v>
       </c>
@@ -13548,7 +13552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="14.25">
+    <row r="63" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>144</v>
       </c>
@@ -13610,7 +13614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="14.25">
+    <row r="64" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>146</v>
       </c>
@@ -13672,7 +13676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="14.25">
+    <row r="65" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>148</v>
       </c>
@@ -13734,7 +13738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="14.25">
+    <row r="66" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>150</v>
       </c>
@@ -13796,7 +13800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="14.25">
+    <row r="67" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>152</v>
       </c>
@@ -13858,7 +13862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="14.25">
+    <row r="68" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>154</v>
       </c>
@@ -13920,7 +13924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="14.25">
+    <row r="69" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>156</v>
       </c>
@@ -13982,7 +13986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="14.25">
+    <row r="70" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>158</v>
       </c>
@@ -14044,7 +14048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="14.25">
+    <row r="71" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>160</v>
       </c>
@@ -14106,7 +14110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="14.25">
+    <row r="72" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>162</v>
       </c>
@@ -14168,7 +14172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="14.25">
+    <row r="73" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>164</v>
       </c>
@@ -14230,7 +14234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="14.25">
+    <row r="74" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>166</v>
       </c>
@@ -14292,7 +14296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="14.25">
+    <row r="75" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>168</v>
       </c>
@@ -14354,7 +14358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="14.25">
+    <row r="76" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>170</v>
       </c>
@@ -14416,7 +14420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="14.25">
+    <row r="77" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>172</v>
       </c>
@@ -14478,7 +14482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="14.25">
+    <row r="78" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>174</v>
       </c>
@@ -14540,7 +14544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="14.25">
+    <row r="79" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>176</v>
       </c>
@@ -14602,7 +14606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="14.25">
+    <row r="80" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>178</v>
       </c>
@@ -14664,7 +14668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="14.25">
+    <row r="81" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>180</v>
       </c>
@@ -14726,7 +14730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="14.25">
+    <row r="82" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>182</v>
       </c>
@@ -14788,7 +14792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="14.25">
+    <row r="83" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>184</v>
       </c>
@@ -14850,7 +14854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="14.25">
+    <row r="84" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>186</v>
       </c>
@@ -14912,7 +14916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="14.25">
+    <row r="85" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>188</v>
       </c>
@@ -14974,7 +14978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="14.25">
+    <row r="86" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>190</v>
       </c>
@@ -15036,7 +15040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="14.25">
+    <row r="87" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>192</v>
       </c>
@@ -15098,7 +15102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="14.25">
+    <row r="88" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>194</v>
       </c>
@@ -15160,7 +15164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="14.25">
+    <row r="89" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>196</v>
       </c>
@@ -15222,7 +15226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="14.25">
+    <row r="90" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>198</v>
       </c>
@@ -15284,7 +15288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="14.25">
+    <row r="91" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>200</v>
       </c>
@@ -15346,7 +15350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="14.25">
+    <row r="92" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>202</v>
       </c>
@@ -15408,7 +15412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="14.25">
+    <row r="93" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>204</v>
       </c>
@@ -15470,7 +15474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="14.25">
+    <row r="94" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>206</v>
       </c>
@@ -15532,7 +15536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="14.25">
+    <row r="95" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>208</v>
       </c>
@@ -15594,7 +15598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="14.25">
+    <row r="96" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>210</v>
       </c>
@@ -15656,7 +15660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="14.25">
+    <row r="97" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>212</v>
       </c>
@@ -15718,7 +15722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="14.25">
+    <row r="98" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>214</v>
       </c>
@@ -15780,7 +15784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="14.25">
+    <row r="99" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>216</v>
       </c>
@@ -15842,7 +15846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="14.25">
+    <row r="100" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>218</v>
       </c>
@@ -15904,7 +15908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="14.25">
+    <row r="101" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>220</v>
       </c>
@@ -15966,7 +15970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="14.25">
+    <row r="102" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>222</v>
       </c>
@@ -16028,7 +16032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="14.25">
+    <row r="103" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>224</v>
       </c>
@@ -16090,7 +16094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="14.25">
+    <row r="104" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>226</v>
       </c>
@@ -16152,7 +16156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="14.25">
+    <row r="105" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>228</v>
       </c>
@@ -16214,7 +16218,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="14.25">
+    <row r="106" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>230</v>
       </c>
@@ -16276,7 +16280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="14.25">
+    <row r="107" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>232</v>
       </c>
@@ -16338,7 +16342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="14.25">
+    <row r="108" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>234</v>
       </c>
@@ -16400,7 +16404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="14.25">
+    <row r="109" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>236</v>
       </c>
@@ -16462,7 +16466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="14.25">
+    <row r="110" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>238</v>
       </c>
@@ -16524,7 +16528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="14.25">
+    <row r="111" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>240</v>
       </c>
@@ -16586,7 +16590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="14.25">
+    <row r="112" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>242</v>
       </c>
@@ -16648,7 +16652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="14.25">
+    <row r="113" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>244</v>
       </c>
@@ -16710,7 +16714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="14.25">
+    <row r="114" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>246</v>
       </c>
@@ -16772,7 +16776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="14.25">
+    <row r="115" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>248</v>
       </c>
@@ -16834,7 +16838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="14.25">
+    <row r="116" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>250</v>
       </c>
@@ -16896,7 +16900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="14.25">
+    <row r="117" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>252</v>
       </c>
@@ -16958,7 +16962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="14.25">
+    <row r="118" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>254</v>
       </c>
@@ -17020,7 +17024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="14.25">
+    <row r="119" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>256</v>
       </c>
@@ -17082,7 +17086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="14.25">
+    <row r="120" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>258</v>
       </c>
@@ -17144,7 +17148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="14.25">
+    <row r="121" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>260</v>
       </c>
@@ -17206,7 +17210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="14.25">
+    <row r="122" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>262</v>
       </c>
@@ -17268,7 +17272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="14.25">
+    <row r="123" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>264</v>
       </c>
@@ -17330,7 +17334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="14.25">
+    <row r="124" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>266</v>
       </c>
@@ -17392,7 +17396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="14.25">
+    <row r="125" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>268</v>
       </c>
@@ -17454,7 +17458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="14.25">
+    <row r="126" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>270</v>
       </c>
@@ -17516,7 +17520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="14.25">
+    <row r="127" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>272</v>
       </c>
@@ -17578,7 +17582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="14.25">
+    <row r="128" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>274</v>
       </c>
@@ -17640,7 +17644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="14.25">
+    <row r="129" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>276</v>
       </c>
@@ -17702,7 +17706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="14.25">
+    <row r="130" spans="1:20" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>408</v>
       </c>
@@ -17765,6 +17769,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T130" xr:uid="{653021F9-B049-4140-9E3A-5F5B531EBA36}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="123"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
